--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление об увольнении.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление об увольнении.xlsx
@@ -66,9 +66,6 @@
     <t>Начальник структурного подразделения__________________________________</t>
   </si>
   <si>
-    <t xml:space="preserve">     Прошу уволить меня по соглашению сторон __________________ 2019 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Заместитель директора </t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">Начальник производства </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Прошу уволить меня по соглашению сторон __________________  </t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
     </row>
     <row r="13" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -772,7 +772,7 @@
     </row>
     <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
@@ -783,14 +783,14 @@
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -801,7 +801,7 @@
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -835,7 +835,7 @@
       <c r="D35" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JfP2mqdxkLqAcs4xLpw2SnKuVENIDaJp+4TQVrsoiP9XFJXj6UI0YZ+3HBuN3XW1dVFFC5BFEFCIMczjDYixWg==" saltValue="f1J0/QxknEczXsS05yyIOg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>
